--- a/STM - controle de estudos.xlsx
+++ b/STM - controle de estudos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="188">
   <si>
     <t>Matéria</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>Inicio</t>
+  </si>
+  <si>
+    <t>oi</t>
   </si>
 </sst>
 </file>
@@ -1737,6 +1740,35 @@
     <xf numFmtId="14" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1745,6 +1777,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1782,47 +1826,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="171" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1834,28 +1837,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1876,7 +1864,22 @@
     <xf numFmtId="10" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4453,7 +4456,6 @@
       <sheetName val="177CF670"/>
     </sheetNames>
     <definedNames>
-      <definedName name="Filtrar"/>
       <definedName name="Plan5.Botãodeopção1_Clique"/>
       <definedName name="Plan5.Botãodeopção2_Clique"/>
     </definedNames>
@@ -4978,8 +4980,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5036,24 +5038,24 @@
       <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="147" t="s">
+      <c r="Q1" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="148"/>
-      <c r="S1" s="149" t="str">
+      <c r="R1" s="135"/>
+      <c r="S1" s="136" t="str">
         <f ca="1" xml:space="preserve"> UPPER(TEXT(NOW(), "MmMM aaaa"))</f>
         <v>FEVEREIRO 2018</v>
       </c>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152" t="s">
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="153"/>
+      <c r="AA1" s="140"/>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="9"/>
@@ -5297,11 +5299,11 @@
       <c r="P4" s="124">
         <v>0.87500000000000022</v>
       </c>
-      <c r="Q4" s="154">
+      <c r="Q4" s="141">
         <f>IFERROR(Q3/R3,"")</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="R4" s="155"/>
+      <c r="R4" s="142"/>
       <c r="S4" s="27">
         <f ca="1" xml:space="preserve"> MOD(Y3, $AA$2) + 1</f>
         <v>4</v>
@@ -5732,17 +5734,17 @@
       </c>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
-      <c r="S9" s="134" t="s">
+      <c r="S9" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="135"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="156">
+      <c r="T9" s="144"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="146">
         <v>43088</v>
       </c>
-      <c r="W9" s="157"/>
-      <c r="X9" s="157"/>
-      <c r="Y9" s="158"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="148"/>
       <c r="Z9" s="40"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
@@ -5800,15 +5802,15 @@
       </c>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
-      <c r="S10" s="134" t="s">
+      <c r="S10" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="135"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="139"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="151"/>
       <c r="Z10" s="40"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -5861,21 +5863,21 @@
       <c r="P11" s="124">
         <v>1.166666666666667</v>
       </c>
-      <c r="Q11" s="140" t="str">
+      <c r="Q11" s="152" t="str">
         <f ca="1">IFERROR(DATEDIF(TODAY(),"04/03/2018","D")&amp; " dia(s) para a prova","")</f>
         <v>7 dia(s) para a prova</v>
       </c>
-      <c r="R11" s="140"/>
-      <c r="S11" s="141" t="str">
+      <c r="R11" s="152"/>
+      <c r="S11" s="153" t="str">
         <f ca="1">IFERROR(DATEDIF(TODAY(),"20/03/2016","D")&amp; " dia(s) para a prova","")</f>
         <v/>
       </c>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="142"/>
-      <c r="X11" s="142"/>
-      <c r="Y11" s="143"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="155"/>
       <c r="Z11" s="40"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
@@ -5928,20 +5930,20 @@
       <c r="P12" s="124">
         <v>1.0208333333333335</v>
       </c>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="140"/>
-      <c r="S12" s="135" t="s">
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="135"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="144">
+      <c r="T12" s="144"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="156">
         <f ca="1">TODAY()+7-WEEKDAY(TODAY()+6-6)</f>
         <v>43162</v>
       </c>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="146"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="158"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -5994,17 +5996,17 @@
       <c r="P13" s="124">
         <v>1.3125000000000002</v>
       </c>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="135" t="s">
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="135"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="146"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="157"/>
+      <c r="X13" s="157"/>
+      <c r="Y13" s="158"/>
       <c r="Z13" s="40"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -6057,8 +6059,8 @@
       <c r="P14" s="124">
         <v>1.3125000000000002</v>
       </c>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -6118,8 +6120,8 @@
       <c r="P15" s="124">
         <v>1.0208333333333335</v>
       </c>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="140"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="152"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -6183,8 +6185,8 @@
       <c r="P16" s="124">
         <v>0.87500000000000022</v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -6242,8 +6244,8 @@
       <c r="P17" s="124">
         <v>0</v>
       </c>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="140"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -6295,8 +6297,8 @@
       <c r="P18" s="124">
         <v>0</v>
       </c>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="152"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -6350,8 +6352,8 @@
       <c r="P19" s="124">
         <v>0</v>
       </c>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -6406,8 +6408,8 @@
       <c r="P20" s="124">
         <v>0</v>
       </c>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="140"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
       <c r="S20" s="9"/>
       <c r="T20" s="108"/>
       <c r="U20" s="9"/>
@@ -6459,8 +6461,8 @@
       <c r="P21" s="124">
         <v>0</v>
       </c>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -6673,7 +6675,9 @@
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="S25" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -8816,12 +8820,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QqfpM6gLAGxP5XPiKzxZxZEbnhEBFFE/lyU7g3EITxvBvwjb+r2XlPUozf1qSciH3Hgd6AmPqDMdEf1Duk/0jQ==" saltValue="d4T27R2WcMBRYbOfANiIAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:Y9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:Y10"/>
     <mergeCell ref="Q11:R21"/>
@@ -8830,6 +8828,12 @@
     <mergeCell ref="V12:Y12"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:Y9"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:Y3">
     <cfRule type="cellIs" dxfId="6" priority="31" stopIfTrue="1" operator="greaterThan">
@@ -8871,8 +8875,8 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:AJ1129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="H204" sqref="H204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27226,14 +27230,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="SS/GYaTxC4c4m6TKJTYH9TG4YZGQ0pxtc5MNLN2GBGVW/Jovm0jovpV3Qu1Mpnwb9TgNo9CBoXctXGhsJUvSyQ==" saltValue="D9saU76MGPFMI1CpNXyE5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3073" r:id="rId3" name="Option Button 1">
+            <control shapeId="3073" r:id="rId4" name="Option Button 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!Plan5.Botãodeopção1_Clique">
                 <anchor moveWithCells="1">
                   <from>
@@ -27255,7 +27260,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3074" r:id="rId4" name="Option Button 2">
+            <control shapeId="3074" r:id="rId5" name="Option Button 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[1]!Plan5.Botãodeopção2_Clique">
                 <anchor moveWithCells="1">
                   <from>
@@ -27326,7 +27331,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="162" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="94" t="s">
@@ -27340,7 +27345,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="176"/>
+      <c r="A4" s="162"/>
       <c r="B4" s="94" t="s">
         <v>93</v>
       </c>
@@ -27414,7 +27419,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="164" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="99" t="s">
@@ -27428,7 +27433,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="99" t="s">
         <v>102</v>
       </c>
@@ -27470,9 +27475,9 @@
       <c r="B14" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="172" t="e">
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="167" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -27482,30 +27487,30 @@
       <c r="B15" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="173"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="168"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="163"/>
       <c r="B16" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="173"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="168"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="163"/>
       <c r="B17" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="173"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="168"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="164" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="99" t="s">
@@ -27519,7 +27524,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="99" t="s">
         <v>112</v>
       </c>
@@ -27530,8 +27535,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
+    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="164"/>
       <c r="B20" s="99" t="s">
         <v>113</v>
       </c>
@@ -27543,7 +27548,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="99" t="s">
         <v>114</v>
       </c>
@@ -27585,9 +27590,9 @@
       <c r="B24" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="172" t="e">
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="167" t="e">
         <f>D24/C24</f>
         <v>#DIV/0!</v>
       </c>
@@ -27597,18 +27602,18 @@
       <c r="B25" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="173"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="168"/>
     </row>
     <row r="26" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="163"/>
       <c r="B26" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="175"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="170"/>
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="163"/>
@@ -27634,8 +27639,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="162" t="s">
+    <row r="29" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A29" s="164" t="s">
         <v>123</v>
       </c>
       <c r="B29" s="99" t="s">
@@ -27649,7 +27654,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
+      <c r="A30" s="164"/>
       <c r="B30" s="99" t="s">
         <v>125</v>
       </c>
@@ -27661,7 +27666,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
+      <c r="A31" s="164"/>
       <c r="B31" s="99" t="s">
         <v>126</v>
       </c>
@@ -27673,7 +27678,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
+      <c r="A32" s="164"/>
       <c r="B32" s="99" t="s">
         <v>127</v>
       </c>
@@ -27685,7 +27690,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
+      <c r="A33" s="164"/>
       <c r="B33" s="99" t="s">
         <v>128</v>
       </c>
@@ -27697,7 +27702,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
+      <c r="A34" s="164"/>
       <c r="B34" s="99" t="s">
         <v>129</v>
       </c>
@@ -27735,7 +27740,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="164" t="s">
+      <c r="A37" s="171" t="s">
         <v>133</v>
       </c>
       <c r="B37" s="99" t="s">
@@ -27749,7 +27754,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="165"/>
+      <c r="A38" s="172"/>
       <c r="B38" s="99" t="s">
         <v>135</v>
       </c>
@@ -27761,7 +27766,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="165"/>
+      <c r="A39" s="172"/>
       <c r="B39" s="99" t="s">
         <v>136</v>
       </c>
@@ -27773,7 +27778,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="165"/>
+      <c r="A40" s="172"/>
       <c r="B40" s="99" t="s">
         <v>137</v>
       </c>
@@ -27785,7 +27790,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="165"/>
+      <c r="A41" s="172"/>
       <c r="B41" s="99" t="s">
         <v>138</v>
       </c>
@@ -27797,7 +27802,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="165"/>
+      <c r="A42" s="172"/>
       <c r="B42" s="99" t="s">
         <v>139</v>
       </c>
@@ -27809,7 +27814,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="165"/>
+      <c r="A43" s="172"/>
       <c r="B43" s="99" t="s">
         <v>140</v>
       </c>
@@ -27821,7 +27826,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="165"/>
+      <c r="A44" s="172"/>
       <c r="B44" s="99" t="s">
         <v>141</v>
       </c>
@@ -27833,7 +27838,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="165"/>
+      <c r="A45" s="172"/>
       <c r="B45" s="99" t="s">
         <v>142</v>
       </c>
@@ -27845,7 +27850,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
+      <c r="A46" s="172"/>
       <c r="B46" s="99" t="s">
         <v>143</v>
       </c>
@@ -27857,7 +27862,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="165"/>
+      <c r="A47" s="172"/>
       <c r="B47" s="99" t="s">
         <v>144</v>
       </c>
@@ -27869,7 +27874,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="165"/>
+      <c r="A48" s="172"/>
       <c r="B48" s="99" t="s">
         <v>145</v>
       </c>
@@ -27881,7 +27886,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="166"/>
+      <c r="A49" s="173"/>
       <c r="B49" s="99" t="s">
         <v>146</v>
       </c>
@@ -27907,7 +27912,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="164" t="s">
+      <c r="A51" s="171" t="s">
         <v>149</v>
       </c>
       <c r="B51" s="99" t="s">
@@ -27921,7 +27926,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A52" s="165"/>
+      <c r="A52" s="172"/>
       <c r="B52" s="99" t="s">
         <v>151</v>
       </c>
@@ -27933,7 +27938,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="166"/>
+      <c r="A53" s="173"/>
       <c r="B53" s="99" t="s">
         <v>152</v>
       </c>
@@ -27945,7 +27950,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="167" t="s">
+      <c r="A54" s="174" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="96" t="s">
@@ -27959,7 +27964,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="168"/>
+      <c r="A55" s="175"/>
       <c r="B55" s="96" t="s">
         <v>155</v>
       </c>
@@ -27971,7 +27976,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="168"/>
+      <c r="A56" s="175"/>
       <c r="B56" s="96" t="s">
         <v>156</v>
       </c>
@@ -27983,7 +27988,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="168"/>
+      <c r="A57" s="175"/>
       <c r="B57" s="96" t="s">
         <v>157</v>
       </c>
@@ -27995,7 +28000,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="168"/>
+      <c r="A58" s="175"/>
       <c r="B58" s="96" t="s">
         <v>158</v>
       </c>
@@ -28007,7 +28012,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="168"/>
+      <c r="A59" s="175"/>
       <c r="B59" s="96" t="s">
         <v>159</v>
       </c>
@@ -28019,7 +28024,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="168"/>
+      <c r="A60" s="175"/>
       <c r="B60" s="96" t="s">
         <v>160</v>
       </c>
@@ -28031,7 +28036,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="168"/>
+      <c r="A61" s="175"/>
       <c r="B61" s="96" t="s">
         <v>161</v>
       </c>
@@ -28043,7 +28048,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="168"/>
+      <c r="A62" s="175"/>
       <c r="B62" s="96" t="s">
         <v>162</v>
       </c>
@@ -28055,7 +28060,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="168"/>
+      <c r="A63" s="175"/>
       <c r="B63" s="96" t="s">
         <v>163</v>
       </c>
@@ -28067,7 +28072,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="168"/>
+      <c r="A64" s="175"/>
       <c r="B64" s="96" t="s">
         <v>164</v>
       </c>
@@ -28079,7 +28084,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="168"/>
+      <c r="A65" s="175"/>
       <c r="B65" s="96" t="s">
         <v>165</v>
       </c>
@@ -28091,7 +28096,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="168"/>
+      <c r="A66" s="175"/>
       <c r="B66" s="96" t="s">
         <v>166</v>
       </c>
@@ -28103,7 +28108,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="168"/>
+      <c r="A67" s="175"/>
       <c r="B67" s="96" t="s">
         <v>167</v>
       </c>
@@ -28115,7 +28120,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="168"/>
+      <c r="A68" s="175"/>
       <c r="B68" s="96" t="s">
         <v>168</v>
       </c>
@@ -28127,7 +28132,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="168"/>
+      <c r="A69" s="175"/>
       <c r="B69" s="96" t="s">
         <v>169</v>
       </c>
@@ -28139,7 +28144,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="168"/>
+      <c r="A70" s="175"/>
       <c r="B70" s="96" t="s">
         <v>170</v>
       </c>
@@ -28151,7 +28156,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="168"/>
+      <c r="A71" s="175"/>
       <c r="B71" s="96" t="s">
         <v>171</v>
       </c>
@@ -28163,7 +28168,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="168"/>
+      <c r="A72" s="175"/>
       <c r="B72" s="96" t="s">
         <v>172</v>
       </c>
@@ -28175,7 +28180,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="169"/>
+      <c r="A73" s="176"/>
       <c r="B73" s="96" t="s">
         <v>173</v>
       </c>
@@ -28201,7 +28206,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="167" t="s">
+      <c r="A75" s="174" t="s">
         <v>176</v>
       </c>
       <c r="B75" s="96" t="s">
@@ -28215,7 +28220,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="168"/>
+      <c r="A76" s="175"/>
       <c r="B76" s="96" t="s">
         <v>178</v>
       </c>
@@ -28227,7 +28232,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="168"/>
+      <c r="A77" s="175"/>
       <c r="B77" s="96" t="s">
         <v>179</v>
       </c>
@@ -28239,7 +28244,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="168"/>
+      <c r="A78" s="175"/>
       <c r="B78" s="96" t="s">
         <v>180</v>
       </c>
@@ -28251,7 +28256,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="169"/>
+      <c r="A79" s="176"/>
       <c r="B79" s="96" t="s">
         <v>181</v>
       </c>
@@ -28345,11 +28350,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A73"/>
+    <mergeCell ref="A75:A79"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="A18:A21"/>
@@ -28358,13 +28365,11 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A73"/>
-    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/STM - controle de estudos.xlsx
+++ b/STM - controle de estudos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="189">
   <si>
     <t>Matéria</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>oi</t>
+  </si>
+  <si>
+    <t>Apostila</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2296,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.60763888888888895</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19097222222222224</c:v>
@@ -2308,7 +2311,7 @@
                   <c:v>0.23680555555555555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>0.23888888888888887</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.2472222222222222</c:v>
@@ -2326,7 +2329,7 @@
                   <c:v>0.3444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4881944444444437</c:v>
+                  <c:v>1.5437499999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98541666666666672</c:v>
@@ -2795,7 +2798,7 @@
                   <c:v>1.1166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>0.18958333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3192,7 +3195,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.60763888888888895</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19097222222222224</c:v>
@@ -3207,7 +3210,7 @@
                   <c:v>0.23680555555555555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>0.23888888888888887</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.2472222222222222</c:v>
@@ -3225,7 +3228,7 @@
                   <c:v>0.3444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4881944444444437</c:v>
+                  <c:v>1.5437499999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98541666666666672</c:v>
@@ -3282,7 +3285,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.6347222222222211</c:v>
+                  <c:v>8.7965277777777757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4980,7 +4983,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -5070,17 +5073,17 @@
       <c r="B2" s="11"/>
       <c r="C2" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,TODAY(),AGENDA!C:C,A2)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;$AA$16,AGENDA!A:A,"&lt;="&amp;$AB$16,AGENDA!C:C,A2)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>4.5138888888888888E-2</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="113">
         <f>SUMIF(AGENDA!C:C,A:A,AGENDA!D:D)</f>
-        <v>0.60763888888888895</v>
+        <v>0.625</v>
       </c>
       <c r="H2" s="14">
         <v>20</v>
@@ -5526,12 +5529,12 @@
       <c r="D7" s="13"/>
       <c r="E7" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;$AA$16,AGENDA!A:A,"&lt;="&amp;$AB$16,AGENDA!C:C,A7)</f>
-        <v>0</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="113">
         <f>SUMIF(AGENDA!C:C,A:A,AGENDA!D:D)</f>
-        <v>0.15</v>
+        <v>0.23888888888888887</v>
       </c>
       <c r="H7" s="14">
         <v>6</v>
@@ -5865,7 +5868,7 @@
       </c>
       <c r="Q11" s="140" t="str">
         <f ca="1">IFERROR(DATEDIF(TODAY(),"04/03/2018","D")&amp; " dia(s) para a prova","")</f>
-        <v>7 dia(s) para a prova</v>
+        <v>6 dia(s) para a prova</v>
       </c>
       <c r="R11" s="140"/>
       <c r="S11" s="141" t="str">
@@ -5958,17 +5961,17 @@
       <c r="B13" s="11"/>
       <c r="C13" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,TODAY(),AGENDA!C:C,A13)</f>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;$AA$16,AGENDA!A:A,"&lt;="&amp;$AB$16,AGENDA!C:C,A13)</f>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="113">
         <f>SUMIF(AGENDA!C:C,A:A,AGENDA!D:D)</f>
-        <v>1.4881944444444437</v>
+        <v>1.5437499999999993</v>
       </c>
       <c r="H13" s="14">
         <v>9</v>
@@ -6364,7 +6367,7 @@
       <c r="Z19" s="40"/>
       <c r="AA19" s="131">
         <f ca="1">TODAY()</f>
-        <v>43156</v>
+        <v>43157</v>
       </c>
       <c r="AB19" s="130"/>
       <c r="AC19" s="9"/>
@@ -7016,17 +7019,17 @@
       <c r="B32" s="52"/>
       <c r="C32" s="114">
         <f t="shared" ref="C32:G32" ca="1" si="4">SUM(C2:C31)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D32" s="52"/>
       <c r="E32" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7777777777777776E-2</v>
+        <v>0.18958333333333333</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="114">
         <f t="shared" si="4"/>
-        <v>8.6347222222222211</v>
+        <v>8.7965277777777757</v>
       </c>
       <c r="H32" s="53">
         <f>SUM(H2:H31)</f>
@@ -7084,17 +7087,17 @@
       <c r="B33" s="58"/>
       <c r="C33" s="115">
         <f t="shared" ref="C33:E33" ca="1" si="6">IF(C32&gt;0,AVERAGEIF(C2:C31,"&gt;0",C2:C31),0)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="115">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7777777777777776E-2</v>
+        <v>6.3194444444444442E-2</v>
       </c>
       <c r="F33" s="58"/>
       <c r="G33" s="115">
         <f>IF(G32&gt;0,AVERAGEIF(G2:G31,"&gt;0",G2:G31),0)</f>
-        <v>0.57564814814814802</v>
+        <v>0.586435185185185</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
@@ -7180,7 +7183,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="56">
         <f ca="1">(DATEDIF(TODAY(),"04/03/2018","D")) * (Q3/R3)</f>
-        <v>1.4583333333333335</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
@@ -8875,8 +8878,8 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:AJ1129"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18283,25 +18286,41 @@
         <v>16</v>
       </c>
       <c r="D206" s="70">
-        <v>2.7777777777777776E-2</v>
+        <v>4.5138888888888888E-2</v>
       </c>
       <c r="E206" s="80" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="109"/>
+      <c r="A207" s="109">
+        <v>43156</v>
+      </c>
       <c r="B207" s="69"/>
-      <c r="C207" s="69"/>
-      <c r="D207" s="70"/>
-      <c r="E207" s="80"/>
+      <c r="C207" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D207" s="70">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="E207" s="80" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="208" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="109"/>
+      <c r="A208" s="109">
+        <v>43157</v>
+      </c>
       <c r="B208" s="69"/>
-      <c r="C208" s="69"/>
-      <c r="D208" s="70"/>
-      <c r="E208" s="80"/>
+      <c r="C208" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D208" s="70">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E208" s="80" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="209" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="109"/>
@@ -24764,8 +24783,8 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25200,11 +25219,11 @@
       </c>
       <c r="D12" s="84">
         <f>SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;B12,AGENDA!A:A,"&lt;="&amp;C12)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0.18958333333333333</v>
       </c>
       <c r="E12" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6347222222222229</v>
+        <v>8.7965277777777775</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>

--- a/STM - controle de estudos.xlsx
+++ b/STM - controle de estudos.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="190">
   <si>
     <t>Matéria</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>Apostila</t>
+  </si>
+  <si>
+    <t>Questôes</t>
   </si>
 </sst>
 </file>
@@ -1743,6 +1746,35 @@
     <xf numFmtId="14" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1751,6 +1783,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1788,47 +1832,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="171" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1840,28 +1843,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1882,7 +1870,22 @@
     <xf numFmtId="10" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2311,7 +2314,7 @@
                   <c:v>0.23680555555555555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23888888888888887</c:v>
+                  <c:v>0.26041666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.2472222222222222</c:v>
@@ -2320,7 +2323,7 @@
                   <c:v>0.80277777777777781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72916666666666663</c:v>
+                  <c:v>0.77361111111111103</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.0118055555555552</c:v>
@@ -2329,7 +2332,7 @@
                   <c:v>0.3444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5437499999999993</c:v>
+                  <c:v>1.6222222222222216</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98541666666666672</c:v>
@@ -2798,7 +2801,7 @@
                   <c:v>1.1166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18958333333333333</c:v>
+                  <c:v>0.33402777777777776</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3210,7 +3213,7 @@
                   <c:v>0.23680555555555555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23888888888888887</c:v>
+                  <c:v>0.26041666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.2472222222222222</c:v>
@@ -3219,7 +3222,7 @@
                   <c:v>0.80277777777777781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72916666666666663</c:v>
+                  <c:v>0.77361111111111103</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.0118055555555552</c:v>
@@ -3228,7 +3231,7 @@
                   <c:v>0.3444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5437499999999993</c:v>
+                  <c:v>1.6222222222222216</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98541666666666672</c:v>
@@ -3285,7 +3288,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.7965277777777757</c:v>
+                  <c:v>8.9409722222222214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5041,24 +5044,24 @@
       <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="147" t="s">
+      <c r="Q1" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="148"/>
-      <c r="S1" s="149" t="str">
+      <c r="R1" s="135"/>
+      <c r="S1" s="136" t="str">
         <f ca="1" xml:space="preserve"> UPPER(TEXT(NOW(), "MmMM aaaa"))</f>
         <v>FEVEREIRO 2018</v>
       </c>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152" t="s">
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="153"/>
+      <c r="AA1" s="140"/>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="9"/>
@@ -5302,11 +5305,11 @@
       <c r="P4" s="124">
         <v>0.87500000000000022</v>
       </c>
-      <c r="Q4" s="154">
+      <c r="Q4" s="141">
         <f>IFERROR(Q3/R3,"")</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="R4" s="155"/>
+      <c r="R4" s="142"/>
       <c r="S4" s="27">
         <f ca="1" xml:space="preserve"> MOD(Y3, $AA$2) + 1</f>
         <v>4</v>
@@ -5524,17 +5527,17 @@
       <c r="B7" s="11"/>
       <c r="C7" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,TODAY(),AGENDA!C:C,A7)</f>
-        <v>0</v>
+        <v>2.1527777777777781E-2</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;$AA$16,AGENDA!A:A,"&lt;="&amp;$AB$16,AGENDA!C:C,A7)</f>
-        <v>8.8888888888888892E-2</v>
+        <v>0.11041666666666668</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="113">
         <f>SUMIF(AGENDA!C:C,A:A,AGENDA!D:D)</f>
-        <v>0.23888888888888887</v>
+        <v>0.26041666666666663</v>
       </c>
       <c r="H7" s="14">
         <v>6</v>
@@ -5737,17 +5740,17 @@
       </c>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
-      <c r="S9" s="134" t="s">
+      <c r="S9" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="135"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="156">
+      <c r="T9" s="144"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="146">
         <v>43088</v>
       </c>
-      <c r="W9" s="157"/>
-      <c r="X9" s="157"/>
-      <c r="Y9" s="158"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="148"/>
       <c r="Z9" s="40"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
@@ -5762,17 +5765,17 @@
       <c r="B10" s="11"/>
       <c r="C10" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,TODAY(),AGENDA!C:C,A10)</f>
-        <v>0</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;$AA$16,AGENDA!A:A,"&lt;="&amp;$AB$16,AGENDA!C:C,A10)</f>
-        <v>0</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="113">
         <f>SUMIF(AGENDA!C:C,A:A,AGENDA!D:D)</f>
-        <v>0.72916666666666663</v>
+        <v>0.77361111111111103</v>
       </c>
       <c r="H10" s="14">
         <v>8</v>
@@ -5805,15 +5808,15 @@
       </c>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
-      <c r="S10" s="134" t="s">
+      <c r="S10" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="135"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="139"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="151"/>
       <c r="Z10" s="40"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -5866,21 +5869,21 @@
       <c r="P11" s="124">
         <v>1.166666666666667</v>
       </c>
-      <c r="Q11" s="140" t="str">
+      <c r="Q11" s="152" t="str">
         <f ca="1">IFERROR(DATEDIF(TODAY(),"04/03/2018","D")&amp; " dia(s) para a prova","")</f>
         <v>6 dia(s) para a prova</v>
       </c>
-      <c r="R11" s="140"/>
-      <c r="S11" s="141" t="str">
+      <c r="R11" s="152"/>
+      <c r="S11" s="153" t="str">
         <f ca="1">IFERROR(DATEDIF(TODAY(),"20/03/2016","D")&amp; " dia(s) para a prova","")</f>
         <v/>
       </c>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="142"/>
-      <c r="X11" s="142"/>
-      <c r="Y11" s="143"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="155"/>
       <c r="Z11" s="40"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
@@ -5933,20 +5936,20 @@
       <c r="P12" s="124">
         <v>1.0208333333333335</v>
       </c>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="140"/>
-      <c r="S12" s="135" t="s">
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="135"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="144">
+      <c r="T12" s="144"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="156">
         <f ca="1">TODAY()+7-WEEKDAY(TODAY()+6-6)</f>
         <v>43162</v>
       </c>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="146"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="158"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -5961,17 +5964,17 @@
       <c r="B13" s="11"/>
       <c r="C13" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,TODAY(),AGENDA!C:C,A13)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.13402777777777777</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;$AA$16,AGENDA!A:A,"&lt;="&amp;$AB$16,AGENDA!C:C,A13)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.13402777777777777</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="113">
         <f>SUMIF(AGENDA!C:C,A:A,AGENDA!D:D)</f>
-        <v>1.5437499999999993</v>
+        <v>1.6222222222222216</v>
       </c>
       <c r="H13" s="14">
         <v>9</v>
@@ -5999,17 +6002,17 @@
       <c r="P13" s="124">
         <v>1.3125000000000002</v>
       </c>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="135" t="s">
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="135"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="146"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="157"/>
+      <c r="X13" s="157"/>
+      <c r="Y13" s="158"/>
       <c r="Z13" s="40"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -6062,8 +6065,8 @@
       <c r="P14" s="124">
         <v>1.3125000000000002</v>
       </c>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -6123,8 +6126,8 @@
       <c r="P15" s="124">
         <v>1.0208333333333335</v>
       </c>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="140"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="152"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -6188,8 +6191,8 @@
       <c r="P16" s="124">
         <v>0.87500000000000022</v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -6247,8 +6250,8 @@
       <c r="P17" s="124">
         <v>0</v>
       </c>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="140"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -6300,8 +6303,8 @@
       <c r="P18" s="124">
         <v>0</v>
       </c>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="152"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -6355,8 +6358,8 @@
       <c r="P19" s="124">
         <v>0</v>
       </c>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -6411,8 +6414,8 @@
       <c r="P20" s="124">
         <v>0</v>
       </c>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="140"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
       <c r="S20" s="9"/>
       <c r="T20" s="108"/>
       <c r="U20" s="9"/>
@@ -6464,8 +6467,8 @@
       <c r="P21" s="124">
         <v>0</v>
       </c>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -7019,17 +7022,17 @@
       <c r="B32" s="52"/>
       <c r="C32" s="114">
         <f t="shared" ref="C32:G32" ca="1" si="4">SUM(C2:C31)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D32" s="52"/>
       <c r="E32" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18958333333333333</v>
+        <v>0.33402777777777781</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="114">
         <f t="shared" si="4"/>
-        <v>8.7965277777777757</v>
+        <v>8.9409722222222214</v>
       </c>
       <c r="H32" s="53">
         <f>SUM(H2:H31)</f>
@@ -7087,17 +7090,17 @@
       <c r="B33" s="58"/>
       <c r="C33" s="115">
         <f t="shared" ref="C33:E33" ca="1" si="6">IF(C32&gt;0,AVERAGEIF(C2:C31,"&gt;0",C2:C31),0)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="115">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3194444444444442E-2</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="F33" s="58"/>
       <c r="G33" s="115">
         <f>IF(G32&gt;0,AVERAGEIF(G2:G31,"&gt;0",G2:G31),0)</f>
-        <v>0.586435185185185</v>
+        <v>0.59606481481481477</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
@@ -8823,12 +8826,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QqfpM6gLAGxP5XPiKzxZxZEbnhEBFFE/lyU7g3EITxvBvwjb+r2XlPUozf1qSciH3Hgd6AmPqDMdEf1Duk/0jQ==" saltValue="d4T27R2WcMBRYbOfANiIAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:Y9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:Y10"/>
     <mergeCell ref="Q11:R21"/>
@@ -8837,6 +8834,12 @@
     <mergeCell ref="V12:Y12"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:Y9"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:Y3">
     <cfRule type="cellIs" dxfId="6" priority="31" stopIfTrue="1" operator="greaterThan">
@@ -8879,7 +8882,7 @@
   <dimension ref="A1:AJ1129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18323,32 +18326,64 @@
       </c>
     </row>
     <row r="209" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="109"/>
+      <c r="A209" s="109">
+        <v>43157</v>
+      </c>
       <c r="B209" s="69"/>
-      <c r="C209" s="69"/>
-      <c r="D209" s="70"/>
-      <c r="E209" s="80"/>
+      <c r="C209" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D209" s="70">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="E209" s="80" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="210" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="109"/>
+      <c r="A210" s="109">
+        <v>43157</v>
+      </c>
       <c r="B210" s="69"/>
-      <c r="C210" s="69"/>
-      <c r="D210" s="70"/>
-      <c r="E210" s="80"/>
+      <c r="C210" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D210" s="70">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="E210" s="80" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="211" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="109"/>
+      <c r="A211" s="109">
+        <v>43157</v>
+      </c>
       <c r="B211" s="69"/>
-      <c r="C211" s="69"/>
-      <c r="D211" s="70"/>
-      <c r="E211" s="80"/>
+      <c r="C211" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D211" s="70">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E211" s="80" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="212" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="109"/>
+      <c r="A212" s="109">
+        <v>43157</v>
+      </c>
       <c r="B212" s="69"/>
-      <c r="C212" s="69"/>
-      <c r="D212" s="70"/>
-      <c r="E212" s="80"/>
+      <c r="C212" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D212" s="70">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="E212" s="80" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="213" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="109"/>
@@ -25219,11 +25254,11 @@
       </c>
       <c r="D12" s="84">
         <f>SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;B12,AGENDA!A:A,"&lt;="&amp;C12)</f>
-        <v>0.18958333333333333</v>
+        <v>0.33402777777777776</v>
       </c>
       <c r="E12" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7965277777777775</v>
+        <v>8.9409722222222214</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -27377,7 +27412,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="162" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="94" t="s">
@@ -27391,7 +27426,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="176"/>
+      <c r="A4" s="162"/>
       <c r="B4" s="94" t="s">
         <v>93</v>
       </c>
@@ -27465,7 +27500,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="164" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="99" t="s">
@@ -27479,7 +27514,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="99" t="s">
         <v>102</v>
       </c>
@@ -27521,9 +27556,9 @@
       <c r="B14" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="172" t="e">
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="167" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -27533,30 +27568,30 @@
       <c r="B15" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="173"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="168"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="163"/>
       <c r="B16" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="173"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="168"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="163"/>
       <c r="B17" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="173"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="168"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="164" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="99" t="s">
@@ -27570,7 +27605,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="99" t="s">
         <v>112</v>
       </c>
@@ -27582,7 +27617,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
+      <c r="A20" s="164"/>
       <c r="B20" s="99" t="s">
         <v>113</v>
       </c>
@@ -27594,7 +27629,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="99" t="s">
         <v>114</v>
       </c>
@@ -27636,9 +27671,9 @@
       <c r="B24" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="172" t="e">
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="167" t="e">
         <f>D24/C24</f>
         <v>#DIV/0!</v>
       </c>
@@ -27648,18 +27683,18 @@
       <c r="B25" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="173"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="168"/>
     </row>
     <row r="26" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="163"/>
       <c r="B26" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="175"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="170"/>
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="163"/>
@@ -27686,7 +27721,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="162" t="s">
+      <c r="A29" s="164" t="s">
         <v>123</v>
       </c>
       <c r="B29" s="99" t="s">
@@ -27700,7 +27735,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
+      <c r="A30" s="164"/>
       <c r="B30" s="99" t="s">
         <v>125</v>
       </c>
@@ -27712,7 +27747,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
+      <c r="A31" s="164"/>
       <c r="B31" s="99" t="s">
         <v>126</v>
       </c>
@@ -27724,7 +27759,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
+      <c r="A32" s="164"/>
       <c r="B32" s="99" t="s">
         <v>127</v>
       </c>
@@ -27736,7 +27771,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
+      <c r="A33" s="164"/>
       <c r="B33" s="99" t="s">
         <v>128</v>
       </c>
@@ -27748,7 +27783,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
+      <c r="A34" s="164"/>
       <c r="B34" s="99" t="s">
         <v>129</v>
       </c>
@@ -27786,7 +27821,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="164" t="s">
+      <c r="A37" s="171" t="s">
         <v>133</v>
       </c>
       <c r="B37" s="99" t="s">
@@ -27800,7 +27835,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="165"/>
+      <c r="A38" s="172"/>
       <c r="B38" s="99" t="s">
         <v>135</v>
       </c>
@@ -27812,7 +27847,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="165"/>
+      <c r="A39" s="172"/>
       <c r="B39" s="99" t="s">
         <v>136</v>
       </c>
@@ -27824,7 +27859,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="165"/>
+      <c r="A40" s="172"/>
       <c r="B40" s="99" t="s">
         <v>137</v>
       </c>
@@ -27836,7 +27871,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="165"/>
+      <c r="A41" s="172"/>
       <c r="B41" s="99" t="s">
         <v>138</v>
       </c>
@@ -27848,7 +27883,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="165"/>
+      <c r="A42" s="172"/>
       <c r="B42" s="99" t="s">
         <v>139</v>
       </c>
@@ -27860,7 +27895,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="165"/>
+      <c r="A43" s="172"/>
       <c r="B43" s="99" t="s">
         <v>140</v>
       </c>
@@ -27872,7 +27907,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="165"/>
+      <c r="A44" s="172"/>
       <c r="B44" s="99" t="s">
         <v>141</v>
       </c>
@@ -27884,7 +27919,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="165"/>
+      <c r="A45" s="172"/>
       <c r="B45" s="99" t="s">
         <v>142</v>
       </c>
@@ -27896,7 +27931,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
+      <c r="A46" s="172"/>
       <c r="B46" s="99" t="s">
         <v>143</v>
       </c>
@@ -27908,7 +27943,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="165"/>
+      <c r="A47" s="172"/>
       <c r="B47" s="99" t="s">
         <v>144</v>
       </c>
@@ -27920,7 +27955,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="165"/>
+      <c r="A48" s="172"/>
       <c r="B48" s="99" t="s">
         <v>145</v>
       </c>
@@ -27932,7 +27967,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="166"/>
+      <c r="A49" s="173"/>
       <c r="B49" s="99" t="s">
         <v>146</v>
       </c>
@@ -27958,7 +27993,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="164" t="s">
+      <c r="A51" s="171" t="s">
         <v>149</v>
       </c>
       <c r="B51" s="99" t="s">
@@ -27972,7 +28007,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A52" s="165"/>
+      <c r="A52" s="172"/>
       <c r="B52" s="99" t="s">
         <v>151</v>
       </c>
@@ -27984,7 +28019,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="166"/>
+      <c r="A53" s="173"/>
       <c r="B53" s="99" t="s">
         <v>152</v>
       </c>
@@ -27996,7 +28031,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="167" t="s">
+      <c r="A54" s="174" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="96" t="s">
@@ -28010,7 +28045,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="168"/>
+      <c r="A55" s="175"/>
       <c r="B55" s="96" t="s">
         <v>155</v>
       </c>
@@ -28022,7 +28057,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="168"/>
+      <c r="A56" s="175"/>
       <c r="B56" s="96" t="s">
         <v>156</v>
       </c>
@@ -28034,7 +28069,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="168"/>
+      <c r="A57" s="175"/>
       <c r="B57" s="96" t="s">
         <v>157</v>
       </c>
@@ -28046,7 +28081,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="168"/>
+      <c r="A58" s="175"/>
       <c r="B58" s="96" t="s">
         <v>158</v>
       </c>
@@ -28058,7 +28093,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="168"/>
+      <c r="A59" s="175"/>
       <c r="B59" s="96" t="s">
         <v>159</v>
       </c>
@@ -28070,7 +28105,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="168"/>
+      <c r="A60" s="175"/>
       <c r="B60" s="96" t="s">
         <v>160</v>
       </c>
@@ -28082,7 +28117,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="168"/>
+      <c r="A61" s="175"/>
       <c r="B61" s="96" t="s">
         <v>161</v>
       </c>
@@ -28094,7 +28129,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="168"/>
+      <c r="A62" s="175"/>
       <c r="B62" s="96" t="s">
         <v>162</v>
       </c>
@@ -28106,7 +28141,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="168"/>
+      <c r="A63" s="175"/>
       <c r="B63" s="96" t="s">
         <v>163</v>
       </c>
@@ -28118,7 +28153,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="168"/>
+      <c r="A64" s="175"/>
       <c r="B64" s="96" t="s">
         <v>164</v>
       </c>
@@ -28130,7 +28165,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="168"/>
+      <c r="A65" s="175"/>
       <c r="B65" s="96" t="s">
         <v>165</v>
       </c>
@@ -28142,7 +28177,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="168"/>
+      <c r="A66" s="175"/>
       <c r="B66" s="96" t="s">
         <v>166</v>
       </c>
@@ -28154,7 +28189,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="168"/>
+      <c r="A67" s="175"/>
       <c r="B67" s="96" t="s">
         <v>167</v>
       </c>
@@ -28166,7 +28201,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="168"/>
+      <c r="A68" s="175"/>
       <c r="B68" s="96" t="s">
         <v>168</v>
       </c>
@@ -28178,7 +28213,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="168"/>
+      <c r="A69" s="175"/>
       <c r="B69" s="96" t="s">
         <v>169</v>
       </c>
@@ -28190,7 +28225,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="168"/>
+      <c r="A70" s="175"/>
       <c r="B70" s="96" t="s">
         <v>170</v>
       </c>
@@ -28202,7 +28237,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="168"/>
+      <c r="A71" s="175"/>
       <c r="B71" s="96" t="s">
         <v>171</v>
       </c>
@@ -28214,7 +28249,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="168"/>
+      <c r="A72" s="175"/>
       <c r="B72" s="96" t="s">
         <v>172</v>
       </c>
@@ -28226,7 +28261,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="169"/>
+      <c r="A73" s="176"/>
       <c r="B73" s="96" t="s">
         <v>173</v>
       </c>
@@ -28252,7 +28287,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="167" t="s">
+      <c r="A75" s="174" t="s">
         <v>176</v>
       </c>
       <c r="B75" s="96" t="s">
@@ -28266,7 +28301,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="168"/>
+      <c r="A76" s="175"/>
       <c r="B76" s="96" t="s">
         <v>178</v>
       </c>
@@ -28278,7 +28313,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="168"/>
+      <c r="A77" s="175"/>
       <c r="B77" s="96" t="s">
         <v>179</v>
       </c>
@@ -28290,7 +28325,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="168"/>
+      <c r="A78" s="175"/>
       <c r="B78" s="96" t="s">
         <v>180</v>
       </c>
@@ -28302,7 +28337,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="169"/>
+      <c r="A79" s="176"/>
       <c r="B79" s="96" t="s">
         <v>181</v>
       </c>
@@ -28396,11 +28431,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A73"/>
+    <mergeCell ref="A75:A79"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="A18:A21"/>
@@ -28409,13 +28446,11 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A73"/>
-    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/STM - controle de estudos.xlsx
+++ b/STM - controle de estudos.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="190">
   <si>
     <t>Matéria</t>
   </si>
@@ -1746,35 +1746,6 @@
     <xf numFmtId="14" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1783,18 +1754,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1832,6 +1791,47 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="171" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1843,13 +1843,28 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1870,22 +1885,7 @@
     <xf numFmtId="10" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2332,7 +2332,7 @@
                   <c:v>0.3444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6222222222222216</c:v>
+                  <c:v>1.6798611111111104</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98541666666666672</c:v>
@@ -2801,7 +2801,7 @@
                   <c:v>1.1166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33402777777777776</c:v>
+                  <c:v>0.39166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3231,7 +3231,7 @@
                   <c:v>0.3444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6222222222222216</c:v>
+                  <c:v>1.6798611111111104</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98541666666666672</c:v>
@@ -3288,7 +3288,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.9409722222222214</c:v>
+                  <c:v>8.99861111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3305,22 +3305,6 @@
           <c:tx>
             <c:v>Meta</c:v>
           </c:tx>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="FF0000"/>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="FF7A00"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="C00000"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -5044,24 +5028,24 @@
       <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="134" t="s">
+      <c r="Q1" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="135"/>
-      <c r="S1" s="136" t="str">
+      <c r="R1" s="148"/>
+      <c r="S1" s="149" t="str">
         <f ca="1" xml:space="preserve"> UPPER(TEXT(NOW(), "MmMM aaaa"))</f>
         <v>FEVEREIRO 2018</v>
       </c>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139" t="s">
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="140"/>
+      <c r="AA1" s="153"/>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="9"/>
@@ -5305,11 +5289,11 @@
       <c r="P4" s="124">
         <v>0.87500000000000022</v>
       </c>
-      <c r="Q4" s="141">
+      <c r="Q4" s="154">
         <f>IFERROR(Q3/R3,"")</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="R4" s="142"/>
+      <c r="R4" s="155"/>
       <c r="S4" s="27">
         <f ca="1" xml:space="preserve"> MOD(Y3, $AA$2) + 1</f>
         <v>4</v>
@@ -5527,7 +5511,7 @@
       <c r="B7" s="11"/>
       <c r="C7" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,TODAY(),AGENDA!C:C,A7)</f>
-        <v>2.1527777777777781E-2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="113">
@@ -5740,17 +5724,17 @@
       </c>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
-      <c r="S9" s="143" t="s">
+      <c r="S9" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="144"/>
-      <c r="U9" s="145"/>
-      <c r="V9" s="146">
+      <c r="T9" s="135"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="156">
         <v>43088</v>
       </c>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="148"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="157"/>
+      <c r="Y9" s="158"/>
       <c r="Z9" s="40"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
@@ -5765,7 +5749,7 @@
       <c r="B10" s="11"/>
       <c r="C10" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,TODAY(),AGENDA!C:C,A10)</f>
-        <v>4.4444444444444446E-2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="113">
@@ -5808,15 +5792,15 @@
       </c>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
-      <c r="S10" s="143" t="s">
+      <c r="S10" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="144"/>
-      <c r="U10" s="145"/>
-      <c r="V10" s="149"/>
-      <c r="W10" s="150"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="151"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="139"/>
       <c r="Z10" s="40"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -5869,21 +5853,21 @@
       <c r="P11" s="124">
         <v>1.166666666666667</v>
       </c>
-      <c r="Q11" s="152" t="str">
+      <c r="Q11" s="140" t="str">
         <f ca="1">IFERROR(DATEDIF(TODAY(),"04/03/2018","D")&amp; " dia(s) para a prova","")</f>
-        <v>6 dia(s) para a prova</v>
-      </c>
-      <c r="R11" s="152"/>
-      <c r="S11" s="153" t="str">
+        <v>5 dia(s) para a prova</v>
+      </c>
+      <c r="R11" s="140"/>
+      <c r="S11" s="141" t="str">
         <f ca="1">IFERROR(DATEDIF(TODAY(),"20/03/2016","D")&amp; " dia(s) para a prova","")</f>
         <v/>
       </c>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="155"/>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="142"/>
+      <c r="X11" s="142"/>
+      <c r="Y11" s="143"/>
       <c r="Z11" s="40"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
@@ -5936,20 +5920,20 @@
       <c r="P12" s="124">
         <v>1.0208333333333335</v>
       </c>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="144" t="s">
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="144"/>
-      <c r="U12" s="145"/>
-      <c r="V12" s="156">
+      <c r="T12" s="135"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="144">
         <f ca="1">TODAY()+7-WEEKDAY(TODAY()+6-6)</f>
         <v>43162</v>
       </c>
-      <c r="W12" s="157"/>
-      <c r="X12" s="157"/>
-      <c r="Y12" s="158"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="146"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -5964,17 +5948,17 @@
       <c r="B13" s="11"/>
       <c r="C13" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,TODAY(),AGENDA!C:C,A13)</f>
-        <v>0.13402777777777777</v>
+        <v>5.7638888888888885E-2</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;$AA$16,AGENDA!A:A,"&lt;="&amp;$AB$16,AGENDA!C:C,A13)</f>
-        <v>0.13402777777777777</v>
+        <v>0.19166666666666665</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="113">
         <f>SUMIF(AGENDA!C:C,A:A,AGENDA!D:D)</f>
-        <v>1.6222222222222216</v>
+        <v>1.6798611111111104</v>
       </c>
       <c r="H13" s="14">
         <v>9</v>
@@ -6002,17 +5986,17 @@
       <c r="P13" s="124">
         <v>1.3125000000000002</v>
       </c>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="144" t="s">
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="144"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="156"/>
-      <c r="W13" s="157"/>
-      <c r="X13" s="157"/>
-      <c r="Y13" s="158"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="146"/>
       <c r="Z13" s="40"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -6065,8 +6049,8 @@
       <c r="P14" s="124">
         <v>1.3125000000000002</v>
       </c>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -6126,8 +6110,8 @@
       <c r="P15" s="124">
         <v>1.0208333333333335</v>
       </c>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="152"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -6191,8 +6175,8 @@
       <c r="P16" s="124">
         <v>0.87500000000000022</v>
       </c>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="152"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="140"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -6250,8 +6234,8 @@
       <c r="P17" s="124">
         <v>0</v>
       </c>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="152"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -6303,8 +6287,8 @@
       <c r="P18" s="124">
         <v>0</v>
       </c>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="152"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -6358,8 +6342,8 @@
       <c r="P19" s="124">
         <v>0</v>
       </c>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -6370,7 +6354,7 @@
       <c r="Z19" s="40"/>
       <c r="AA19" s="131">
         <f ca="1">TODAY()</f>
-        <v>43157</v>
+        <v>43158</v>
       </c>
       <c r="AB19" s="130"/>
       <c r="AC19" s="9"/>
@@ -6414,8 +6398,8 @@
       <c r="P20" s="124">
         <v>0</v>
       </c>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="152"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
       <c r="S20" s="9"/>
       <c r="T20" s="108"/>
       <c r="U20" s="9"/>
@@ -6467,8 +6451,8 @@
       <c r="P21" s="124">
         <v>0</v>
       </c>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="152"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="140"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -7022,17 +7006,17 @@
       <c r="B32" s="52"/>
       <c r="C32" s="114">
         <f t="shared" ref="C32:G32" ca="1" si="4">SUM(C2:C31)</f>
-        <v>0.2</v>
+        <v>5.7638888888888885E-2</v>
       </c>
       <c r="D32" s="52"/>
       <c r="E32" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33402777777777781</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="114">
         <f t="shared" si="4"/>
-        <v>8.9409722222222214</v>
+        <v>8.99861111111111</v>
       </c>
       <c r="H32" s="53">
         <f>SUM(H2:H31)</f>
@@ -7090,17 +7074,17 @@
       <c r="B33" s="58"/>
       <c r="C33" s="115">
         <f t="shared" ref="C33:E33" ca="1" si="6">IF(C32&gt;0,AVERAGEIF(C2:C31,"&gt;0",C2:C31),0)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7638888888888885E-2</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="115">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3506944444444453E-2</v>
+        <v>9.7916666666666666E-2</v>
       </c>
       <c r="F33" s="58"/>
       <c r="G33" s="115">
         <f>IF(G32&gt;0,AVERAGEIF(G2:G31,"&gt;0",G2:G31),0)</f>
-        <v>0.59606481481481477</v>
+        <v>0.59990740740740733</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
@@ -7186,7 +7170,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="56">
         <f ca="1">(DATEDIF(TODAY(),"04/03/2018","D")) * (Q3/R3)</f>
-        <v>1.25</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
@@ -8826,6 +8810,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QqfpM6gLAGxP5XPiKzxZxZEbnhEBFFE/lyU7g3EITxvBvwjb+r2XlPUozf1qSciH3Hgd6AmPqDMdEf1Duk/0jQ==" saltValue="d4T27R2WcMBRYbOfANiIAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:Y9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:Y10"/>
     <mergeCell ref="Q11:R21"/>
@@ -8834,12 +8824,6 @@
     <mergeCell ref="V12:Y12"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:Y9"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:Y3">
     <cfRule type="cellIs" dxfId="6" priority="31" stopIfTrue="1" operator="greaterThan">
@@ -8882,7 +8866,7 @@
   <dimension ref="A1:AJ1129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18386,11 +18370,19 @@
       </c>
     </row>
     <row r="213" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="109"/>
+      <c r="A213" s="109">
+        <v>43158</v>
+      </c>
       <c r="B213" s="69"/>
-      <c r="C213" s="69"/>
-      <c r="D213" s="70"/>
-      <c r="E213" s="80"/>
+      <c r="C213" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D213" s="70">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="E213" s="80" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="214" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="109"/>
@@ -25254,11 +25246,11 @@
       </c>
       <c r="D12" s="84">
         <f>SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;B12,AGENDA!A:A,"&lt;="&amp;C12)</f>
-        <v>0.33402777777777776</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="E12" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9409722222222214</v>
+        <v>8.9986111111111118</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -27412,7 +27404,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="176" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="94" t="s">
@@ -27426,7 +27418,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="162"/>
+      <c r="A4" s="176"/>
       <c r="B4" s="94" t="s">
         <v>93</v>
       </c>
@@ -27500,7 +27492,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="162" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="99" t="s">
@@ -27514,7 +27506,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="164"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="99" t="s">
         <v>102</v>
       </c>
@@ -27556,9 +27548,9 @@
       <c r="B14" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="167" t="e">
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="172" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -27568,30 +27560,30 @@
       <c r="B15" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="168"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="173"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="163"/>
       <c r="B16" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="168"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="173"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="163"/>
       <c r="B17" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="168"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="173"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="164" t="s">
+      <c r="A18" s="162" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="99" t="s">
@@ -27605,7 +27597,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="164"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="99" t="s">
         <v>112</v>
       </c>
@@ -27617,7 +27609,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="164"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="99" t="s">
         <v>113</v>
       </c>
@@ -27629,7 +27621,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="99" t="s">
         <v>114</v>
       </c>
@@ -27671,9 +27663,9 @@
       <c r="B24" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="167" t="e">
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="172" t="e">
         <f>D24/C24</f>
         <v>#DIV/0!</v>
       </c>
@@ -27683,18 +27675,18 @@
       <c r="B25" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="168"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="173"/>
     </row>
     <row r="26" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="163"/>
       <c r="B26" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="170"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="175"/>
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="163"/>
@@ -27721,7 +27713,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="162" t="s">
         <v>123</v>
       </c>
       <c r="B29" s="99" t="s">
@@ -27735,7 +27727,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="164"/>
+      <c r="A30" s="162"/>
       <c r="B30" s="99" t="s">
         <v>125</v>
       </c>
@@ -27747,7 +27739,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="164"/>
+      <c r="A31" s="162"/>
       <c r="B31" s="99" t="s">
         <v>126</v>
       </c>
@@ -27759,7 +27751,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="164"/>
+      <c r="A32" s="162"/>
       <c r="B32" s="99" t="s">
         <v>127</v>
       </c>
@@ -27771,7 +27763,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="164"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="99" t="s">
         <v>128</v>
       </c>
@@ -27783,7 +27775,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="164"/>
+      <c r="A34" s="162"/>
       <c r="B34" s="99" t="s">
         <v>129</v>
       </c>
@@ -27821,7 +27813,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="171" t="s">
+      <c r="A37" s="164" t="s">
         <v>133</v>
       </c>
       <c r="B37" s="99" t="s">
@@ -27835,7 +27827,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="172"/>
+      <c r="A38" s="165"/>
       <c r="B38" s="99" t="s">
         <v>135</v>
       </c>
@@ -27847,7 +27839,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="172"/>
+      <c r="A39" s="165"/>
       <c r="B39" s="99" t="s">
         <v>136</v>
       </c>
@@ -27859,7 +27851,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="172"/>
+      <c r="A40" s="165"/>
       <c r="B40" s="99" t="s">
         <v>137</v>
       </c>
@@ -27871,7 +27863,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="172"/>
+      <c r="A41" s="165"/>
       <c r="B41" s="99" t="s">
         <v>138</v>
       </c>
@@ -27883,7 +27875,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="172"/>
+      <c r="A42" s="165"/>
       <c r="B42" s="99" t="s">
         <v>139</v>
       </c>
@@ -27895,7 +27887,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="172"/>
+      <c r="A43" s="165"/>
       <c r="B43" s="99" t="s">
         <v>140</v>
       </c>
@@ -27907,7 +27899,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="172"/>
+      <c r="A44" s="165"/>
       <c r="B44" s="99" t="s">
         <v>141</v>
       </c>
@@ -27919,7 +27911,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="172"/>
+      <c r="A45" s="165"/>
       <c r="B45" s="99" t="s">
         <v>142</v>
       </c>
@@ -27931,7 +27923,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="172"/>
+      <c r="A46" s="165"/>
       <c r="B46" s="99" t="s">
         <v>143</v>
       </c>
@@ -27943,7 +27935,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
+      <c r="A47" s="165"/>
       <c r="B47" s="99" t="s">
         <v>144</v>
       </c>
@@ -27955,7 +27947,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="172"/>
+      <c r="A48" s="165"/>
       <c r="B48" s="99" t="s">
         <v>145</v>
       </c>
@@ -27967,7 +27959,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="173"/>
+      <c r="A49" s="166"/>
       <c r="B49" s="99" t="s">
         <v>146</v>
       </c>
@@ -27993,7 +27985,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="171" t="s">
+      <c r="A51" s="164" t="s">
         <v>149</v>
       </c>
       <c r="B51" s="99" t="s">
@@ -28007,7 +27999,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A52" s="172"/>
+      <c r="A52" s="165"/>
       <c r="B52" s="99" t="s">
         <v>151</v>
       </c>
@@ -28019,7 +28011,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="173"/>
+      <c r="A53" s="166"/>
       <c r="B53" s="99" t="s">
         <v>152</v>
       </c>
@@ -28031,7 +28023,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="174" t="s">
+      <c r="A54" s="167" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="96" t="s">
@@ -28045,7 +28037,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="175"/>
+      <c r="A55" s="168"/>
       <c r="B55" s="96" t="s">
         <v>155</v>
       </c>
@@ -28057,7 +28049,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="175"/>
+      <c r="A56" s="168"/>
       <c r="B56" s="96" t="s">
         <v>156</v>
       </c>
@@ -28069,7 +28061,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="175"/>
+      <c r="A57" s="168"/>
       <c r="B57" s="96" t="s">
         <v>157</v>
       </c>
@@ -28081,7 +28073,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="175"/>
+      <c r="A58" s="168"/>
       <c r="B58" s="96" t="s">
         <v>158</v>
       </c>
@@ -28093,7 +28085,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="175"/>
+      <c r="A59" s="168"/>
       <c r="B59" s="96" t="s">
         <v>159</v>
       </c>
@@ -28105,7 +28097,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="175"/>
+      <c r="A60" s="168"/>
       <c r="B60" s="96" t="s">
         <v>160</v>
       </c>
@@ -28117,7 +28109,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="175"/>
+      <c r="A61" s="168"/>
       <c r="B61" s="96" t="s">
         <v>161</v>
       </c>
@@ -28129,7 +28121,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="175"/>
+      <c r="A62" s="168"/>
       <c r="B62" s="96" t="s">
         <v>162</v>
       </c>
@@ -28141,7 +28133,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="175"/>
+      <c r="A63" s="168"/>
       <c r="B63" s="96" t="s">
         <v>163</v>
       </c>
@@ -28153,7 +28145,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="175"/>
+      <c r="A64" s="168"/>
       <c r="B64" s="96" t="s">
         <v>164</v>
       </c>
@@ -28165,7 +28157,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="175"/>
+      <c r="A65" s="168"/>
       <c r="B65" s="96" t="s">
         <v>165</v>
       </c>
@@ -28177,7 +28169,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="175"/>
+      <c r="A66" s="168"/>
       <c r="B66" s="96" t="s">
         <v>166</v>
       </c>
@@ -28189,7 +28181,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="175"/>
+      <c r="A67" s="168"/>
       <c r="B67" s="96" t="s">
         <v>167</v>
       </c>
@@ -28201,7 +28193,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="175"/>
+      <c r="A68" s="168"/>
       <c r="B68" s="96" t="s">
         <v>168</v>
       </c>
@@ -28213,7 +28205,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="175"/>
+      <c r="A69" s="168"/>
       <c r="B69" s="96" t="s">
         <v>169</v>
       </c>
@@ -28225,7 +28217,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="175"/>
+      <c r="A70" s="168"/>
       <c r="B70" s="96" t="s">
         <v>170</v>
       </c>
@@ -28237,7 +28229,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="175"/>
+      <c r="A71" s="168"/>
       <c r="B71" s="96" t="s">
         <v>171</v>
       </c>
@@ -28249,7 +28241,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="175"/>
+      <c r="A72" s="168"/>
       <c r="B72" s="96" t="s">
         <v>172</v>
       </c>
@@ -28261,7 +28253,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="176"/>
+      <c r="A73" s="169"/>
       <c r="B73" s="96" t="s">
         <v>173</v>
       </c>
@@ -28287,7 +28279,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="174" t="s">
+      <c r="A75" s="167" t="s">
         <v>176</v>
       </c>
       <c r="B75" s="96" t="s">
@@ -28301,7 +28293,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="175"/>
+      <c r="A76" s="168"/>
       <c r="B76" s="96" t="s">
         <v>178</v>
       </c>
@@ -28313,7 +28305,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="175"/>
+      <c r="A77" s="168"/>
       <c r="B77" s="96" t="s">
         <v>179</v>
       </c>
@@ -28325,7 +28317,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="175"/>
+      <c r="A78" s="168"/>
       <c r="B78" s="96" t="s">
         <v>180</v>
       </c>
@@ -28337,7 +28329,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="176"/>
+      <c r="A79" s="169"/>
       <c r="B79" s="96" t="s">
         <v>181</v>
       </c>
@@ -28431,13 +28423,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A73"/>
-    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="A18:A21"/>
@@ -28446,11 +28436,13 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A73"/>
+    <mergeCell ref="A75:A79"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/STM - controle de estudos.xlsx
+++ b/STM - controle de estudos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="190">
   <si>
     <t>Matéria</t>
   </si>
@@ -1746,6 +1746,35 @@
     <xf numFmtId="14" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1754,6 +1783,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1791,47 +1832,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="171" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1843,28 +1843,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1885,7 +1870,22 @@
     <xf numFmtId="10" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2332,7 +2332,7 @@
                   <c:v>0.3444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6798611111111104</c:v>
+                  <c:v>1.7347222222222214</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98541666666666672</c:v>
@@ -2801,7 +2801,7 @@
                   <c:v>1.1166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39166666666666666</c:v>
+                  <c:v>0.44652777777777775</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3231,7 +3231,7 @@
                   <c:v>0.3444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6798611111111104</c:v>
+                  <c:v>1.7347222222222214</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98541666666666672</c:v>
@@ -3288,7 +3288,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.99861111111111</c:v>
+                  <c:v>9.0534722222222204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4970,7 +4970,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -5028,24 +5028,24 @@
       <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="147" t="s">
+      <c r="Q1" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="148"/>
-      <c r="S1" s="149" t="str">
+      <c r="R1" s="135"/>
+      <c r="S1" s="136" t="str">
         <f ca="1" xml:space="preserve"> UPPER(TEXT(NOW(), "MmMM aaaa"))</f>
         <v>FEVEREIRO 2018</v>
       </c>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152" t="s">
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="153"/>
+      <c r="AA1" s="140"/>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="9"/>
@@ -5289,11 +5289,11 @@
       <c r="P4" s="124">
         <v>0.87500000000000022</v>
       </c>
-      <c r="Q4" s="154">
+      <c r="Q4" s="141">
         <f>IFERROR(Q3/R3,"")</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="R4" s="155"/>
+      <c r="R4" s="142"/>
       <c r="S4" s="27">
         <f ca="1" xml:space="preserve"> MOD(Y3, $AA$2) + 1</f>
         <v>4</v>
@@ -5724,17 +5724,17 @@
       </c>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
-      <c r="S9" s="134" t="s">
+      <c r="S9" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="135"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="156">
+      <c r="T9" s="144"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="146">
         <v>43088</v>
       </c>
-      <c r="W9" s="157"/>
-      <c r="X9" s="157"/>
-      <c r="Y9" s="158"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="148"/>
       <c r="Z9" s="40"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
@@ -5792,15 +5792,15 @@
       </c>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
-      <c r="S10" s="134" t="s">
+      <c r="S10" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="135"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="139"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="151"/>
       <c r="Z10" s="40"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -5853,21 +5853,21 @@
       <c r="P11" s="124">
         <v>1.166666666666667</v>
       </c>
-      <c r="Q11" s="140" t="str">
+      <c r="Q11" s="152" t="str">
         <f ca="1">IFERROR(DATEDIF(TODAY(),"04/03/2018","D")&amp; " dia(s) para a prova","")</f>
-        <v>5 dia(s) para a prova</v>
-      </c>
-      <c r="R11" s="140"/>
-      <c r="S11" s="141" t="str">
+        <v>4 dia(s) para a prova</v>
+      </c>
+      <c r="R11" s="152"/>
+      <c r="S11" s="153" t="str">
         <f ca="1">IFERROR(DATEDIF(TODAY(),"20/03/2016","D")&amp; " dia(s) para a prova","")</f>
         <v/>
       </c>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="142"/>
-      <c r="X11" s="142"/>
-      <c r="Y11" s="143"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="155"/>
       <c r="Z11" s="40"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
@@ -5920,20 +5920,20 @@
       <c r="P12" s="124">
         <v>1.0208333333333335</v>
       </c>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="140"/>
-      <c r="S12" s="135" t="s">
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="135"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="144">
+      <c r="T12" s="144"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="156">
         <f ca="1">TODAY()+7-WEEKDAY(TODAY()+6-6)</f>
         <v>43162</v>
       </c>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="146"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="158"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -5948,17 +5948,17 @@
       <c r="B13" s="11"/>
       <c r="C13" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,TODAY(),AGENDA!C:C,A13)</f>
-        <v>5.7638888888888885E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="113">
         <f ca="1">SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;$AA$16,AGENDA!A:A,"&lt;="&amp;$AB$16,AGENDA!C:C,A13)</f>
-        <v>0.19166666666666665</v>
+        <v>0.24652777777777776</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="113">
         <f>SUMIF(AGENDA!C:C,A:A,AGENDA!D:D)</f>
-        <v>1.6798611111111104</v>
+        <v>1.7347222222222214</v>
       </c>
       <c r="H13" s="14">
         <v>9</v>
@@ -5986,17 +5986,17 @@
       <c r="P13" s="124">
         <v>1.3125000000000002</v>
       </c>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="135" t="s">
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="135"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="146"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="157"/>
+      <c r="X13" s="157"/>
+      <c r="Y13" s="158"/>
       <c r="Z13" s="40"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -6049,8 +6049,8 @@
       <c r="P14" s="124">
         <v>1.3125000000000002</v>
       </c>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -6110,8 +6110,8 @@
       <c r="P15" s="124">
         <v>1.0208333333333335</v>
       </c>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="140"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="152"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -6175,8 +6175,8 @@
       <c r="P16" s="124">
         <v>0.87500000000000022</v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -6234,8 +6234,8 @@
       <c r="P17" s="124">
         <v>0</v>
       </c>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="140"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -6287,8 +6287,8 @@
       <c r="P18" s="124">
         <v>0</v>
       </c>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="152"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -6342,8 +6342,8 @@
       <c r="P19" s="124">
         <v>0</v>
       </c>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -6354,7 +6354,7 @@
       <c r="Z19" s="40"/>
       <c r="AA19" s="131">
         <f ca="1">TODAY()</f>
-        <v>43158</v>
+        <v>43159</v>
       </c>
       <c r="AB19" s="130"/>
       <c r="AC19" s="9"/>
@@ -6398,8 +6398,8 @@
       <c r="P20" s="124">
         <v>0</v>
       </c>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="140"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
       <c r="S20" s="9"/>
       <c r="T20" s="108"/>
       <c r="U20" s="9"/>
@@ -6451,8 +6451,8 @@
       <c r="P21" s="124">
         <v>0</v>
       </c>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -7006,17 +7006,17 @@
       <c r="B32" s="52"/>
       <c r="C32" s="114">
         <f t="shared" ref="C32:G32" ca="1" si="4">SUM(C2:C31)</f>
-        <v>5.7638888888888885E-2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="52"/>
       <c r="E32" s="114">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39166666666666666</v>
+        <v>0.44652777777777775</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="114">
         <f t="shared" si="4"/>
-        <v>8.99861111111111</v>
+        <v>9.0534722222222204</v>
       </c>
       <c r="H32" s="53">
         <f>SUM(H2:H31)</f>
@@ -7074,17 +7074,17 @@
       <c r="B33" s="58"/>
       <c r="C33" s="115">
         <f t="shared" ref="C33:E33" ca="1" si="6">IF(C32&gt;0,AVERAGEIF(C2:C31,"&gt;0",C2:C31),0)</f>
-        <v>5.7638888888888885E-2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="115">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7916666666666666E-2</v>
+        <v>0.11163194444444444</v>
       </c>
       <c r="F33" s="58"/>
       <c r="G33" s="115">
         <f>IF(G32&gt;0,AVERAGEIF(G2:G31,"&gt;0",G2:G31),0)</f>
-        <v>0.59990740740740733</v>
+        <v>0.60356481481481472</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
@@ -7170,7 +7170,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="56">
         <f ca="1">(DATEDIF(TODAY(),"04/03/2018","D")) * (Q3/R3)</f>
-        <v>1.0416666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
@@ -8810,12 +8810,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QqfpM6gLAGxP5XPiKzxZxZEbnhEBFFE/lyU7g3EITxvBvwjb+r2XlPUozf1qSciH3Hgd6AmPqDMdEf1Duk/0jQ==" saltValue="d4T27R2WcMBRYbOfANiIAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:Y9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:Y10"/>
     <mergeCell ref="Q11:R21"/>
@@ -8824,6 +8818,12 @@
     <mergeCell ref="V12:Y12"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:Y9"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:Y3">
     <cfRule type="cellIs" dxfId="6" priority="31" stopIfTrue="1" operator="greaterThan">
@@ -8865,7 +8865,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:AJ1129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+    <sheetView topLeftCell="A199" workbookViewId="0">
       <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
@@ -18385,10 +18385,16 @@
       </c>
     </row>
     <row r="214" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="109"/>
+      <c r="A214" s="109">
+        <v>43158</v>
+      </c>
       <c r="B214" s="69"/>
-      <c r="C214" s="69"/>
-      <c r="D214" s="70"/>
+      <c r="C214" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D214" s="70">
+        <v>5.486111111111111E-2</v>
+      </c>
       <c r="E214" s="80"/>
     </row>
     <row r="215" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25246,11 +25252,11 @@
       </c>
       <c r="D12" s="84">
         <f>SUMIFS(AGENDA!D:D,AGENDA!A:A,"&gt;="&amp;B12,AGENDA!A:A,"&lt;="&amp;C12)</f>
-        <v>0.39166666666666666</v>
+        <v>0.44652777777777775</v>
       </c>
       <c r="E12" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9986111111111118</v>
+        <v>9.0534722222222221</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -27404,7 +27410,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="162" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="94" t="s">
@@ -27418,7 +27424,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="176"/>
+      <c r="A4" s="162"/>
       <c r="B4" s="94" t="s">
         <v>93</v>
       </c>
@@ -27492,7 +27498,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="164" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="99" t="s">
@@ -27506,7 +27512,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="99" t="s">
         <v>102</v>
       </c>
@@ -27548,9 +27554,9 @@
       <c r="B14" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="172" t="e">
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="167" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -27560,30 +27566,30 @@
       <c r="B15" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="173"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="168"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="163"/>
       <c r="B16" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="173"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="168"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="163"/>
       <c r="B17" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="173"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="168"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="164" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="99" t="s">
@@ -27597,7 +27603,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="99" t="s">
         <v>112</v>
       </c>
@@ -27608,8 +27614,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
+    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="164"/>
       <c r="B20" s="99" t="s">
         <v>113</v>
       </c>
@@ -27621,7 +27627,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="99" t="s">
         <v>114</v>
       </c>
@@ -27663,9 +27669,9 @@
       <c r="B24" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="172" t="e">
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="167" t="e">
         <f>D24/C24</f>
         <v>#DIV/0!</v>
       </c>
@@ -27675,18 +27681,18 @@
       <c r="B25" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="173"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="168"/>
     </row>
     <row r="26" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="163"/>
       <c r="B26" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="175"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="170"/>
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="163"/>
@@ -27712,8 +27718,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="162" t="s">
+    <row r="29" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A29" s="164" t="s">
         <v>123</v>
       </c>
       <c r="B29" s="99" t="s">
@@ -27727,7 +27733,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
+      <c r="A30" s="164"/>
       <c r="B30" s="99" t="s">
         <v>125</v>
       </c>
@@ -27739,7 +27745,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
+      <c r="A31" s="164"/>
       <c r="B31" s="99" t="s">
         <v>126</v>
       </c>
@@ -27751,7 +27757,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
+      <c r="A32" s="164"/>
       <c r="B32" s="99" t="s">
         <v>127</v>
       </c>
@@ -27763,7 +27769,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
+      <c r="A33" s="164"/>
       <c r="B33" s="99" t="s">
         <v>128</v>
       </c>
@@ -27775,7 +27781,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
+      <c r="A34" s="164"/>
       <c r="B34" s="99" t="s">
         <v>129</v>
       </c>
@@ -27813,7 +27819,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="164" t="s">
+      <c r="A37" s="171" t="s">
         <v>133</v>
       </c>
       <c r="B37" s="99" t="s">
@@ -27827,7 +27833,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="165"/>
+      <c r="A38" s="172"/>
       <c r="B38" s="99" t="s">
         <v>135</v>
       </c>
@@ -27839,7 +27845,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="165"/>
+      <c r="A39" s="172"/>
       <c r="B39" s="99" t="s">
         <v>136</v>
       </c>
@@ -27851,7 +27857,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="165"/>
+      <c r="A40" s="172"/>
       <c r="B40" s="99" t="s">
         <v>137</v>
       </c>
@@ -27863,7 +27869,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="165"/>
+      <c r="A41" s="172"/>
       <c r="B41" s="99" t="s">
         <v>138</v>
       </c>
@@ -27875,7 +27881,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="165"/>
+      <c r="A42" s="172"/>
       <c r="B42" s="99" t="s">
         <v>139</v>
       </c>
@@ -27887,7 +27893,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="165"/>
+      <c r="A43" s="172"/>
       <c r="B43" s="99" t="s">
         <v>140</v>
       </c>
@@ -27899,7 +27905,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="165"/>
+      <c r="A44" s="172"/>
       <c r="B44" s="99" t="s">
         <v>141</v>
       </c>
@@ -27911,7 +27917,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="165"/>
+      <c r="A45" s="172"/>
       <c r="B45" s="99" t="s">
         <v>142</v>
       </c>
@@ -27923,7 +27929,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
+      <c r="A46" s="172"/>
       <c r="B46" s="99" t="s">
         <v>143</v>
       </c>
@@ -27935,7 +27941,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="165"/>
+      <c r="A47" s="172"/>
       <c r="B47" s="99" t="s">
         <v>144</v>
       </c>
@@ -27947,7 +27953,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="165"/>
+      <c r="A48" s="172"/>
       <c r="B48" s="99" t="s">
         <v>145</v>
       </c>
@@ -27959,7 +27965,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="166"/>
+      <c r="A49" s="173"/>
       <c r="B49" s="99" t="s">
         <v>146</v>
       </c>
@@ -27985,7 +27991,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="164" t="s">
+      <c r="A51" s="171" t="s">
         <v>149</v>
       </c>
       <c r="B51" s="99" t="s">
@@ -27999,7 +28005,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A52" s="165"/>
+      <c r="A52" s="172"/>
       <c r="B52" s="99" t="s">
         <v>151</v>
       </c>
@@ -28011,7 +28017,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="166"/>
+      <c r="A53" s="173"/>
       <c r="B53" s="99" t="s">
         <v>152</v>
       </c>
@@ -28023,7 +28029,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="167" t="s">
+      <c r="A54" s="174" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="96" t="s">
@@ -28037,7 +28043,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="168"/>
+      <c r="A55" s="175"/>
       <c r="B55" s="96" t="s">
         <v>155</v>
       </c>
@@ -28049,7 +28055,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="168"/>
+      <c r="A56" s="175"/>
       <c r="B56" s="96" t="s">
         <v>156</v>
       </c>
@@ -28061,7 +28067,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="168"/>
+      <c r="A57" s="175"/>
       <c r="B57" s="96" t="s">
         <v>157</v>
       </c>
@@ -28073,7 +28079,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="168"/>
+      <c r="A58" s="175"/>
       <c r="B58" s="96" t="s">
         <v>158</v>
       </c>
@@ -28085,7 +28091,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="168"/>
+      <c r="A59" s="175"/>
       <c r="B59" s="96" t="s">
         <v>159</v>
       </c>
@@ -28097,7 +28103,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="168"/>
+      <c r="A60" s="175"/>
       <c r="B60" s="96" t="s">
         <v>160</v>
       </c>
@@ -28109,7 +28115,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="168"/>
+      <c r="A61" s="175"/>
       <c r="B61" s="96" t="s">
         <v>161</v>
       </c>
@@ -28121,7 +28127,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="168"/>
+      <c r="A62" s="175"/>
       <c r="B62" s="96" t="s">
         <v>162</v>
       </c>
@@ -28133,7 +28139,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="168"/>
+      <c r="A63" s="175"/>
       <c r="B63" s="96" t="s">
         <v>163</v>
       </c>
@@ -28145,7 +28151,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="168"/>
+      <c r="A64" s="175"/>
       <c r="B64" s="96" t="s">
         <v>164</v>
       </c>
@@ -28157,7 +28163,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="168"/>
+      <c r="A65" s="175"/>
       <c r="B65" s="96" t="s">
         <v>165</v>
       </c>
@@ -28169,7 +28175,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="168"/>
+      <c r="A66" s="175"/>
       <c r="B66" s="96" t="s">
         <v>166</v>
       </c>
@@ -28181,7 +28187,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="168"/>
+      <c r="A67" s="175"/>
       <c r="B67" s="96" t="s">
         <v>167</v>
       </c>
@@ -28193,7 +28199,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="168"/>
+      <c r="A68" s="175"/>
       <c r="B68" s="96" t="s">
         <v>168</v>
       </c>
@@ -28205,7 +28211,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="168"/>
+      <c r="A69" s="175"/>
       <c r="B69" s="96" t="s">
         <v>169</v>
       </c>
@@ -28217,7 +28223,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="168"/>
+      <c r="A70" s="175"/>
       <c r="B70" s="96" t="s">
         <v>170</v>
       </c>
@@ -28229,7 +28235,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="168"/>
+      <c r="A71" s="175"/>
       <c r="B71" s="96" t="s">
         <v>171</v>
       </c>
@@ -28241,7 +28247,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="168"/>
+      <c r="A72" s="175"/>
       <c r="B72" s="96" t="s">
         <v>172</v>
       </c>
@@ -28253,7 +28259,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="169"/>
+      <c r="A73" s="176"/>
       <c r="B73" s="96" t="s">
         <v>173</v>
       </c>
@@ -28279,7 +28285,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="167" t="s">
+      <c r="A75" s="174" t="s">
         <v>176</v>
       </c>
       <c r="B75" s="96" t="s">
@@ -28293,7 +28299,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="168"/>
+      <c r="A76" s="175"/>
       <c r="B76" s="96" t="s">
         <v>178</v>
       </c>
@@ -28305,7 +28311,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="168"/>
+      <c r="A77" s="175"/>
       <c r="B77" s="96" t="s">
         <v>179</v>
       </c>
@@ -28317,7 +28323,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="168"/>
+      <c r="A78" s="175"/>
       <c r="B78" s="96" t="s">
         <v>180</v>
       </c>
@@ -28329,7 +28335,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="169"/>
+      <c r="A79" s="176"/>
       <c r="B79" s="96" t="s">
         <v>181</v>
       </c>
@@ -28423,11 +28429,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A73"/>
+    <mergeCell ref="A75:A79"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="A18:A21"/>
@@ -28436,13 +28444,11 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A73"/>
-    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
